--- a/datafiles/projectplanning.xlsx
+++ b/datafiles/projectplanning.xlsx
@@ -132,9 +132,6 @@
     <t>Analysis</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>End of Design</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>40969</v>
@@ -1041,7 +1041,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>40982</v>
@@ -1079,7 +1079,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>41000</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9">
         <f>F5</f>
@@ -1135,7 +1135,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>41021</v>
@@ -1169,7 +1169,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1">
         <v>41044</v>
@@ -1203,7 +1203,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>41067</v>
@@ -1237,7 +1237,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>41097</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9">
         <f>F11</f>
@@ -1283,7 +1283,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1292,7 +1292,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9">
         <f>E8</f>
@@ -1328,7 +1328,7 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="9">
         <f>F14</f>
@@ -1363,7 +1363,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9">
         <f>F15</f>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9">
         <f>F16</f>
@@ -1414,7 +1414,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1423,7 +1423,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9">
         <f>E15</f>
@@ -1462,7 +1462,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="9">
         <f>F19</f>
@@ -1495,7 +1495,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="9">
         <f>F20</f>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9">
         <f>F21</f>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>41159</v>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40969</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40970</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40971</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40972</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40973</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40974</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40975</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40976</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40977</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40978</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40979</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40980</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40981</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40982</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40983</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40984</v>
       </c>
